--- a/artfynd/A 31470-2024 artfynd.xlsx
+++ b/artfynd/A 31470-2024 artfynd.xlsx
@@ -4070,7 +4070,7 @@
         <v>124766529</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>124766526</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>124766527</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
